--- a/Macroeconomia/Materiais/SAM.xlsx
+++ b/Macroeconomia/Materiais/SAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Documents\Docência\IBMEC-SP\2023 2 Macroeconomia - Adm e Eco\Aulas\Aula 3 - Variáveis macroeconômicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D22F3D5-FBEC-47B0-86D2-DC46FD52B2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163042E6-D094-4A75-88AE-69202E97A8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86DC7B5F-4852-460F-949D-795593C00F9A}"/>
   </bookViews>
@@ -16,9 +16,12 @@
     <sheet name="Economia fechada e sem governo" sheetId="1" r:id="rId1"/>
     <sheet name="Economia fechada e sem gove (2)" sheetId="3" r:id="rId2"/>
     <sheet name="Economia fechada e sem gove (3)" sheetId="4" r:id="rId3"/>
-    <sheet name="Economia aberta e com governo" sheetId="2" r:id="rId4"/>
-    <sheet name="Economia aberta e com gover (2)" sheetId="7" r:id="rId5"/>
-    <sheet name="Economia aberta e com gover (3)" sheetId="8" r:id="rId6"/>
+    <sheet name="Economia fechada e com governo" sheetId="9" r:id="rId4"/>
+    <sheet name="Economia fechada e com gov (2)" sheetId="10" r:id="rId5"/>
+    <sheet name="Economia fechad e com gov (3)" sheetId="11" r:id="rId6"/>
+    <sheet name="Economia aberta e com governo" sheetId="2" r:id="rId7"/>
+    <sheet name="Economia aberta e com gover (2)" sheetId="7" r:id="rId8"/>
+    <sheet name="Economia aberta e com gover (3)" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="50">
   <si>
     <t>Economia fechada e sem governo</t>
   </si>
@@ -311,6 +314,61 @@
   </si>
   <si>
     <t>Economia aberta e com governo</t>
+  </si>
+  <si>
+    <t>Y = C + I + G</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>priv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>públ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>= I</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -667,17 +725,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -689,84 +740,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,10 +1145,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:I10"/>
+  <dimension ref="C1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:H4"/>
+      <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1099,92 +1159,84 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:8" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7"/>
+    <row r="3" spans="3:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+    </row>
+    <row r="4" spans="3:8" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-    </row>
-    <row r="5" spans="2:9" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="3:8" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" spans="3:8" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="41"/>
+      <c r="D6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="2:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="13" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="3:8" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="41"/>
+      <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="2:9" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="14" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="3:8" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="41"/>
+      <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="2:9" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="6"/>
-      <c r="D9" s="23" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="3:8" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5"/>
+      <c r="D9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="2:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="7"/>
-    </row>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="3:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C5:C8"/>
@@ -1199,10 +1251,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:I10"/>
+  <dimension ref="C1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:H4"/>
+      <selection activeCell="C5" sqref="C5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1213,110 +1265,102 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:8" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7"/>
+    <row r="3" spans="3:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+    </row>
+    <row r="4" spans="3:8" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-    </row>
-    <row r="5" spans="2:9" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="3:8" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" spans="3:8" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="41"/>
+      <c r="D6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="34" t="s">
+      <c r="E6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="2:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="13" t="s">
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="3:8" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="41"/>
+      <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="2:9" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="14" t="s">
+      <c r="F7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="3:8" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="41"/>
+      <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="2:9" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="6"/>
-      <c r="D9" s="23" t="s">
+      <c r="G8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="3:8" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5"/>
+      <c r="D9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="2:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="7"/>
-    </row>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="3:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E4:H4"/>
@@ -1331,10 +1375,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:I17"/>
+  <dimension ref="C1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1345,130 +1389,122 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:8" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7"/>
+    <row r="3" spans="3:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+    </row>
+    <row r="4" spans="3:8" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-    </row>
-    <row r="5" spans="2:9" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="3:8" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" spans="3:8" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="41"/>
+      <c r="D6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="34" t="s">
+      <c r="E6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="13" t="s">
+    <row r="7" spans="3:8" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="41"/>
+      <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="F7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="14" t="s">
+    <row r="8" spans="3:8" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="41"/>
+      <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="6"/>
-      <c r="D9" s="23" t="s">
+    <row r="9" spans="3:8" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5"/>
+      <c r="D9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="2:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="7"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="31" t="s">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="3:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="39"/>
+    </row>
+    <row r="13" spans="3:8" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1476,7 +1512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1484,11 +1520,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="32" t="s">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="27" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1504,11 +1540,793 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ADDCBE-FE14-4DBD-9749-A46EF498347C}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="C1:I19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="1" customWidth="1"/>
+    <col min="4" max="9" width="22.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" spans="3:9" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="36"/>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="36"/>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="36"/>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="36"/>
+      <c r="D9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="5"/>
+      <c r="D10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="3:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="3:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4305DFAF-0FE2-477F-8669-9E403B468B8F}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="C1:I20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="1" customWidth="1"/>
+    <col min="4" max="9" width="22.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" spans="3:9" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="36"/>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="36"/>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="36"/>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="36"/>
+      <c r="D9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="5"/>
+      <c r="D10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="3:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="3:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="4:5" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34981BB-0311-48AA-9173-DE5DA1CF6319}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="C1:I20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="1" customWidth="1"/>
+    <col min="4" max="9" width="22.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" spans="3:9" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="36"/>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="36"/>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="36"/>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="36"/>
+      <c r="D9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="5"/>
+      <c r="D10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="3:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="3:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D19" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31588D3-0E48-4992-AEA6-36C674FE96D4}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:K21"/>
+  <dimension ref="C1:J21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="0.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="1" customWidth="1"/>
+    <col min="4" max="10" width="22.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="3:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="3:10" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="36"/>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="36"/>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="36"/>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="36"/>
+      <c r="D9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="36"/>
+      <c r="D10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5"/>
+      <c r="D11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="3:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="39"/>
+    </row>
+    <row r="15" spans="3:10" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="D20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EE8C40-44F9-4657-8C0B-2D9E3FE8F320}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="C1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:I11"/>
@@ -1522,142 +2340,182 @@
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:10" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7"/>
+    <row r="3" spans="3:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+    </row>
+    <row r="4" spans="3:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="2:11" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="3:10" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="36"/>
+      <c r="D6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="13" t="s">
+      <c r="E6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="36"/>
+      <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="13" t="s">
+      <c r="E7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="36"/>
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="13" t="s">
+      <c r="E8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="36"/>
+      <c r="D9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="14" t="s">
+      <c r="E9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="36"/>
+      <c r="D10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="6"/>
-      <c r="D11" s="23" t="s">
+      <c r="E10" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5"/>
+      <c r="D11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="7"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="31" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="3:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="39"/>
+    </row>
+    <row r="15" spans="3:10" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,10 +2548,10 @@
       </c>
     </row>
     <row r="20" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1708,15 +2566,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EE8C40-44F9-4657-8C0B-2D9E3FE8F320}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C5FCB0-9248-422F-9BF8-9563F37A59DB}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:K21"/>
+  <dimension ref="C1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E11" sqref="E11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1727,192 +2585,202 @@
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:10" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7"/>
+    <row r="3" spans="3:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+    </row>
+    <row r="4" spans="3:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="2:11" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="3:10" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="36"/>
+      <c r="D6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="34" t="s">
+      <c r="E6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="13" t="s">
+      <c r="J6" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="36"/>
+      <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="13" t="s">
+      <c r="F7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="36"/>
+      <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="13" t="s">
+      <c r="G8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="36"/>
+      <c r="D9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="36" t="s">
+      <c r="H9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="14" t="s">
+      <c r="J9" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="36"/>
+      <c r="D10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="6"/>
-      <c r="D11" s="23" t="s">
+      <c r="F10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5"/>
+      <c r="D11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="7"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="31" t="s">
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="3:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="39"/>
+    </row>
+    <row r="15" spans="3:10" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1945,285 +2813,10 @@
       </c>
     </row>
     <row r="20" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C5FCB0-9248-422F-9BF8-9563F37A59DB}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="B1:K21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="0.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" style="1" customWidth="1"/>
-    <col min="4" max="10" width="22.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="2:11" ht="61.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="3" customFormat="1" ht="61.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="6"/>
-      <c r="D11" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="7"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D20" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="27" t="s">
         <v>38</v>
       </c>
     </row>
